--- a/results/FrequencyTables/26990633_LTR-C.xlsx
+++ b/results/FrequencyTables/26990633_LTR-C.xlsx
@@ -465,43 +465,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.00609756097560976</v>
       </c>
       <c r="C2">
-        <v>0.975609756097561</v>
+        <v>0.981707317073171</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.00203252032520325</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.00203252032520325</v>
       </c>
       <c r="F2">
-        <v>0.0487804878048781</v>
+        <v>0.016260162601626</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.00203252032520325</v>
       </c>
       <c r="H2">
+        <v>0.0121951219512195</v>
+      </c>
+      <c r="I2">
+        <v>0.973577235772358</v>
+      </c>
+      <c r="J2">
         <v>0.024390243902439</v>
       </c>
-      <c r="I2">
-        <v>0.975609756097561</v>
-      </c>
-      <c r="J2">
-        <v>0.0487804878048781</v>
-      </c>
       <c r="K2">
-        <v>0.975609756097561</v>
+        <v>0.951219512195122</v>
       </c>
       <c r="L2">
-        <v>0.98780487804878</v>
+        <v>0.961382113821138</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.0121951219512195</v>
+        <v>0.0040650406504065</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -510,28 +510,28 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>0.995934959349594</v>
       </c>
       <c r="R2">
-        <v>0.0121951219512195</v>
+        <v>0.0040650406504065</v>
       </c>
       <c r="S2">
-        <v>0.951219512195122</v>
+        <v>0.890243902439024</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.0609756097560976</v>
       </c>
       <c r="U2">
-        <v>0.024390243902439</v>
+        <v>0.0691056910569106</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0.989837398373984</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.00609756097560976</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.00203252032520325</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0121951219512195</v>
+        <v>0.0101626016260163</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.0040650406504065</v>
       </c>
       <c r="D3">
-        <v>0.0365853658536585</v>
+        <v>0.0223577235772358</v>
       </c>
       <c r="E3">
-        <v>0.0121951219512195</v>
+        <v>0.00609756097560976</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.00203252032520325</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.975609756097561</v>
+        <v>0.977642276422764</v>
       </c>
       <c r="I3">
-        <v>0.0121951219512195</v>
+        <v>0.0101626016260163</v>
       </c>
       <c r="J3">
-        <v>0.024390243902439</v>
+        <v>0.0142276422764228</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.00203252032520325</v>
       </c>
       <c r="L3">
-        <v>0.0121951219512195</v>
+        <v>0.0040650406504065</v>
       </c>
       <c r="M3">
-        <v>0.902439024390244</v>
+        <v>0.943089430894309</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.00609756097560976</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.98780487804878</v>
+        <v>0.991869918699187</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.0040650406504065</v>
       </c>
       <c r="R3">
-        <v>0.98780487804878</v>
+        <v>0.99390243902439</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="T3">
-        <v>0.975609756097561</v>
+        <v>0.930894308943089</v>
       </c>
       <c r="U3">
-        <v>0.975609756097561</v>
+        <v>0.92479674796748</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.00203252032520325</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.0040650406504065</v>
       </c>
       <c r="X3">
-        <v>0.0121951219512195</v>
+        <v>0.0040650406504065</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>0.979674796747967</v>
+      </c>
+      <c r="C4">
+        <v>0.00203252032520325</v>
+      </c>
+      <c r="D4">
+        <v>0.00813008130081301</v>
+      </c>
+      <c r="E4">
+        <v>0.0040650406504065</v>
+      </c>
+      <c r="F4">
         <v>0.975609756097561</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0.0121951219512195</v>
-      </c>
-      <c r="E4">
-        <v>0.0121951219512195</v>
-      </c>
-      <c r="F4">
-        <v>0.939024390243902</v>
-      </c>
       <c r="G4">
+        <v>0.99390243902439</v>
+      </c>
+      <c r="H4">
+        <v>0.00813008130081301</v>
+      </c>
+      <c r="I4">
+        <v>0.0040650406504065</v>
+      </c>
+      <c r="J4">
+        <v>0.951219512195122</v>
+      </c>
+      <c r="K4">
+        <v>0.0040650406504065</v>
+      </c>
+      <c r="L4">
+        <v>0.032520325203252</v>
+      </c>
+      <c r="M4">
+        <v>0.00203252032520325</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.00203252032520325</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.00203252032520325</v>
+      </c>
+      <c r="S4">
+        <v>0.0101626016260163</v>
+      </c>
+      <c r="T4">
+        <v>0.00203252032520325</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0.00609756097560976</v>
+      </c>
+      <c r="W4">
         <v>0.98780487804878</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0.914634146341463</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0.0487804878048781</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>1</v>
-      </c>
       <c r="X4">
-        <v>0.98780487804878</v>
+        <v>0.991869918699187</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,49 +687,49 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>0.0040650406504065</v>
+      </c>
+      <c r="C5">
         <v>0.0121951219512195</v>
       </c>
-      <c r="C5">
-        <v>0.024390243902439</v>
-      </c>
       <c r="D5">
-        <v>0.951219512195122</v>
+        <v>0.967479674796748</v>
       </c>
       <c r="E5">
-        <v>0.975609756097561</v>
+        <v>0.98780487804878</v>
       </c>
       <c r="F5">
-        <v>0.0121951219512195</v>
+        <v>0.00609756097560976</v>
       </c>
       <c r="G5">
-        <v>0.0121951219512195</v>
+        <v>0.0040650406504065</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.00203252032520325</v>
       </c>
       <c r="I5">
         <v>0.0121951219512195</v>
       </c>
       <c r="J5">
-        <v>0.0121951219512195</v>
+        <v>0.0101626016260163</v>
       </c>
       <c r="K5">
-        <v>0.024390243902439</v>
+        <v>0.040650406504065</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0975609756097561</v>
+        <v>0.0528455284552846</v>
       </c>
       <c r="N5">
-        <v>0.98780487804878</v>
+        <v>0.989837398373984</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0121951219512195</v>
+        <v>0.00609756097560976</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -738,22 +738,22 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.00203252032520325</v>
       </c>
       <c r="T5">
-        <v>0.024390243902439</v>
+        <v>0.0040650406504065</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.00609756097560976</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.00203252032520325</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.00203252032520325</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.00203252032520325</v>
       </c>
     </row>
   </sheetData>
